--- a/dist/data/profiles/xlsx/bluff/profile 21-10 graph.xlsx
+++ b/dist/data/profiles/xlsx/bluff/profile 21-10 graph.xlsx
@@ -1674,11 +1674,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="82864285"/>
-        <c:axId val="97741101"/>
+        <c:axId val="47810042"/>
+        <c:axId val="78194541"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="82864285"/>
+        <c:axId val="47810042"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1713,12 +1713,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="97741101"/>
+        <c:crossAx val="78194541"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="97741101"/>
+        <c:axId val="78194541"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1762,7 +1762,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="82864285"/>
+        <c:crossAx val="47810042"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
